--- a/Autumn 2023/Engineering Economics/Case Study/Business Case Template.xlsx
+++ b/Autumn 2023/Engineering Economics/Case Study/Business Case Template.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\OneDrive\Documents\College-Work\Autumn 2023\Engineering Economics\Case Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Autumn 2023\Engineering Economics\Case Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CCBA42-D07B-4637-963F-12249F6CDB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48FD9D-79C7-477F-8C10-6B8EAEAB17D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{573D87FC-B036-4B45-AC8F-18FDF705B230}"/>
+    <workbookView xWindow="-8490" yWindow="4860" windowWidth="17055" windowHeight="12135" xr2:uid="{573D87FC-B036-4B45-AC8F-18FDF705B230}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Case" sheetId="1" r:id="rId1"/>
     <sheet name="Drop Downs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Business Case'!$C$161:$C$166</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Business Case'!$F$161:$F$166</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Business Case'!$C$161:$C$166</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Business Case'!$C$190:$C$195</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Business Case'!$F$161:$F$166</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Business Case'!$F$190:$F$195</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Business Case'!$C$161:$C$166</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Business Case'!$F$161:$F$166</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
   <si>
     <r>
       <t>·</t>
@@ -1124,24 +1134,6 @@
     <t>Reducing in costs</t>
   </si>
   <si>
-    <t>Can a race car be a better investment than just saving my money? It is likely that I will end up with a greater ROR if I were to just save my money rather than invest into a car, but that may not be true!</t>
-  </si>
-  <si>
-    <t>Determine if it would be a better decision to buy and invest money into a race car and parts, or save that same money in the bank over a 5 year period. This analysis will include cost of parts and the car itself, but will not include cost of labor or fuel.</t>
-  </si>
-  <si>
-    <t>The problem is that I'm clinically insane and have an intense urge to get a car for drag racing. The other problem is that I don't have the money to get something like this while paying for college. But what if I could pay for college with the car as a catalyist for an investment? This analysis will determine if that's possible or really stupid.</t>
-  </si>
-  <si>
-    <t>The goal for this project is to hopefully justify a purchase that is generally very financially irresponsible.</t>
-  </si>
-  <si>
-    <t>We will build the slowest fast car ever</t>
-  </si>
-  <si>
-    <t>Assuming I don't need to register the car for use on public roads</t>
-  </si>
-  <si>
     <t>Financial measurements will be given per each year, and the full project will take 5 years.</t>
   </si>
   <si>
@@ -1182,6 +1174,60 @@
   </si>
   <si>
     <t>Crashed Car</t>
+  </si>
+  <si>
+    <t>It would be a really bad idea to buy a race car. It would result in a large loss.</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Profits</t>
+  </si>
+  <si>
+    <t>Car Breaks</t>
+  </si>
+  <si>
+    <t>A part goes boom</t>
+  </si>
+  <si>
+    <t>Car needs fixed</t>
+  </si>
+  <si>
+    <t>Building a race car</t>
+  </si>
+  <si>
+    <t>Saving money, without race car</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>The question to be answered by this project is as follows: Can a race car be a better investment than just saving my money? In this analysis we will use initial cost, operating costs,  maintenance costs, and the salvage cost to calculate the total rate of return, which will then show us how viable it would  be to go down the route of building a race car as a financial option.</t>
+  </si>
+  <si>
+    <t>This project will determine if it would be a better decision to buy and invest money into a race car and parts, or save that same money in the bank over a 5 year period. This analysis will include cost of parts and the car itself, but will not include cost of labor, fuel, or insurance.</t>
+  </si>
+  <si>
+    <t>The problem is that I'm clinically insane and have an intense urge to get a car for drag racing. The other problem is that I don't have the money to get something like this while paying for college. To make this possible, we would need to know if I could pay for college with the car as a catalyist for an investment? This analysis will determine if that's possible or really stupid.</t>
+  </si>
+  <si>
+    <t>The goal for this project is to make at least a 10% rate of return among all expenses and profits, as this would not only allow me to break even on the project , but would also bring in extra money which would allow me to pay off some of my education.</t>
+  </si>
+  <si>
+    <t>Assumptions for this project include the following: The car will not need to drive on public roads, therefore no need for registration or insurance. Labor will not be included, as I would be doing all of the work to fix and maintain the vehicle. Finally, we will assume that I am able to win at least one event per year with a prize of $500 on average.</t>
+  </si>
+  <si>
+    <t>The strategy to this project is to spend as little as possible while still creating a car able to compete in local events. This in theory should allow for the greatest possible rate of return.</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -2256,31 +2302,283 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2301,73 +2599,34 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,12 +2639,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2393,237 +2646,32 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2640,6 +2688,1240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Cash Flow</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Cash Flow</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{510AEA5A-BCA7-470C-A0B1-51D9D41DCF39}">
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Cash Flow</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Cash Flow</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{00000005-5F5B-4DFF-B40F-4E7957099D57}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2772,16 +4054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>77560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>751115</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>296635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2796,7 +4078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771900" y="18059400"/>
+          <a:off x="11748408" y="32190417"/>
           <a:ext cx="228600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3211,6 +4493,162 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605516</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>2719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364B7DFF-CFA8-443F-9322-68FC49528E61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6592659" y="34537648"/>
+              <a:ext cx="8783412" cy="4474031"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608238</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>5440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410936</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="12" name="Chart 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC007D3-036E-4E62-8EB8-0D1B8E2B8EAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6595381" y="40064869"/>
+              <a:ext cx="8783412" cy="4474031"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3511,191 +4949,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCB050F-9B74-4EB7-99BD-9E31CE1F5B5C}">
-  <dimension ref="A1:AA162"/>
+  <dimension ref="A1:AA198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q119" sqref="Q119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73:K73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" customWidth="1"/>
-    <col min="25" max="25" width="9.109375"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="165" t="s">
+    <row r="1" spans="2:15" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="167"/>
-    </row>
-    <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="168" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+    </row>
+    <row r="2" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="158" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="159"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="160"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="161"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="160"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="161"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="160"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="161"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="160"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="161"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="160"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="161"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="161"/>
-    </row>
-    <row r="10" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="164"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="58"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="61"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -3710,146 +5148,146 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="168" t="s">
+    <row r="12" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="158" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="159"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="160"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="161"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="160"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="161"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="161"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="160"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="161"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="160"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="161"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="160"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="161"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="164"/>
-    </row>
-    <row r="21" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="58"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+    </row>
+    <row r="21" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -3864,146 +5302,146 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="151" t="s">
+    <row r="22" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="153"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-    </row>
-    <row r="31" spans="2:14" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="68"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="70"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="71"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="72"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="71"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="72"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="71"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="72"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="71"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="72"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="71"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="72"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="71"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="72"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="75"/>
+    </row>
+    <row r="31" spans="2:14" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -4018,146 +5456,146 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="151" t="s">
+    <row r="32" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="153"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="50"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="50"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="50"/>
-    </row>
-    <row r="40" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="53"/>
-    </row>
-    <row r="41" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="68"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="70"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="71"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="72"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="71"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="72"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="71"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="72"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="71"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="72"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="71"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="72"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="71"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="72"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="75"/>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -4172,86 +5610,86 @@
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="151" t="s">
+    <row r="42" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="152"/>
-      <c r="K42" s="152"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="153"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="50"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="50"/>
-    </row>
-    <row r="46" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="51"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="53"/>
-    </row>
-    <row r="47" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="68"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="70"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="71"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="72"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="71"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="72"/>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="75"/>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4266,131 +5704,131 @@
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="151" t="s">
+    <row r="48" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="153"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="47"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="50"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="50"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="50"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="50"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="50"/>
-    </row>
-    <row r="55" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="53"/>
-    </row>
-    <row r="56" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="68"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="70"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="71"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="72"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="71"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="72"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="71"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="72"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="71"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="72"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="71"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="72"/>
+    </row>
+    <row r="55" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="73"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="75"/>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -4405,602 +5843,602 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="151" t="s">
+    <row r="57" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="152"/>
-      <c r="M57" s="152"/>
-      <c r="N57" s="153"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="47"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="50"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="50"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="50"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="50"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="50"/>
-    </row>
-    <row r="64" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="51"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="53"/>
-    </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B66" s="129" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="68"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="70"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="71"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="72"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="71"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="72"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="71"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="72"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="71"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="72"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="71"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="72"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="75"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B66" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="130"/>
-      <c r="O66" s="131"/>
-    </row>
-    <row r="67" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="128" t="s">
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="49"/>
+    </row>
+    <row r="67" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79" t="s">
+      <c r="C67" s="78"/>
+      <c r="D67" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E67" s="79"/>
-      <c r="F67" s="101" t="s">
+      <c r="E67" s="78"/>
+      <c r="F67" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="101"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="27" t="s">
         <v>69</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J67" s="101" t="s">
+      <c r="J67" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="K67" s="101"/>
-      <c r="L67" s="101" t="s">
+      <c r="K67" s="45"/>
+      <c r="L67" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M67" s="101"/>
-      <c r="N67" s="101"/>
-      <c r="O67" s="157"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="46"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="B68" s="156" t="s">
+      <c r="B68" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="155"/>
-      <c r="D68" s="155" t="s">
-        <v>161</v>
-      </c>
-      <c r="E68" s="155"/>
-      <c r="F68" s="154">
+      <c r="C68" s="79"/>
+      <c r="D68" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="79"/>
+      <c r="F68" s="82">
         <v>10000</v>
       </c>
-      <c r="G68" s="154"/>
+      <c r="G68" s="82"/>
       <c r="H68" s="25" t="s">
         <v>64</v>
       </c>
       <c r="I68" s="26">
-        <v>5</v>
-      </c>
-      <c r="J68" s="110"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="110"/>
-      <c r="M68" s="112"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="113"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="90"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="92"/>
+      <c r="N68" s="92"/>
+      <c r="O68" s="93"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="79"/>
-      <c r="F69" s="149">
+      <c r="C69" s="45"/>
+      <c r="D69" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="78"/>
+      <c r="F69" s="76">
         <v>2000</v>
       </c>
-      <c r="G69" s="149"/>
+      <c r="G69" s="76"/>
       <c r="H69" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I69" s="12">
         <v>5</v>
       </c>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="80"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="78"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="89"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
-      <c r="B70" s="108" t="s">
+      <c r="B70" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="109">
+      <c r="C70" s="52"/>
+      <c r="D70" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="77">
         <v>1000</v>
       </c>
-      <c r="G70" s="109"/>
+      <c r="G70" s="77"/>
       <c r="H70" s="21" t="s">
         <v>63</v>
       </c>
       <c r="I70" s="14">
         <v>5</v>
       </c>
-      <c r="J70" s="110"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="110"/>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="113"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J70" s="90"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="90"/>
+      <c r="M70" s="92"/>
+      <c r="N70" s="92"/>
+      <c r="O70" s="93"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
-      <c r="B71" s="116" t="s">
+      <c r="B71" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="101"/>
-      <c r="D71" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="79"/>
-      <c r="F71" s="149">
+      <c r="C71" s="45"/>
+      <c r="D71" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="78"/>
+      <c r="F71" s="76">
         <v>15000</v>
       </c>
-      <c r="G71" s="149"/>
+      <c r="G71" s="76"/>
       <c r="H71" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I71" s="12">
         <v>0</v>
       </c>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
-      <c r="N71" s="79"/>
-      <c r="O71" s="80"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+      <c r="O71" s="89"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
-      <c r="B72" s="108"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="109"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
       <c r="H72" s="21"/>
-      <c r="J72" s="110"/>
-      <c r="K72" s="111"/>
-      <c r="L72" s="110"/>
-      <c r="M72" s="112"/>
-      <c r="N72" s="112"/>
-      <c r="O72" s="113"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J72" s="90"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
+      <c r="O72" s="93"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
-      <c r="B73" s="116"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="149"/>
-      <c r="G73" s="149"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
       <c r="H73" s="9"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="80"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="78"/>
+      <c r="N73" s="78"/>
+      <c r="O73" s="89"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
-      <c r="B74" s="108"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="109"/>
-      <c r="G74" s="109"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
       <c r="H74" s="21"/>
       <c r="I74" s="14"/>
-      <c r="J74" s="110"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="110"/>
-      <c r="M74" s="112"/>
-      <c r="N74" s="112"/>
-      <c r="O74" s="113"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J74" s="90"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="92"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="93"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
-      <c r="B75" s="116"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="149"/>
-      <c r="G75" s="149"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
       <c r="H75" s="9"/>
       <c r="I75" s="12"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="80"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="89"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
-      <c r="B76" s="108"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
       <c r="H76" s="21"/>
       <c r="I76" s="14"/>
-      <c r="J76" s="110"/>
-      <c r="K76" s="111"/>
-      <c r="L76" s="110"/>
-      <c r="M76" s="112"/>
-      <c r="N76" s="112"/>
-      <c r="O76" s="113"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J76" s="90"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="90"/>
+      <c r="M76" s="92"/>
+      <c r="N76" s="92"/>
+      <c r="O76" s="93"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10</v>
       </c>
-      <c r="B77" s="116"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="149"/>
-      <c r="G77" s="149"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
       <c r="H77" s="9"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="79"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="79"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="80"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
+      <c r="O77" s="89"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
-      <c r="B78" s="108"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
       <c r="H78" s="21"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="110"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="110"/>
-      <c r="M78" s="112"/>
-      <c r="N78" s="112"/>
-      <c r="O78" s="113"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J78" s="90"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="90"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+      <c r="O78" s="93"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
-      <c r="B79" s="116"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="149"/>
-      <c r="G79" s="149"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
       <c r="H79" s="9"/>
       <c r="I79" s="12"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="80"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J79" s="78"/>
+      <c r="K79" s="78"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="78"/>
+      <c r="N79" s="78"/>
+      <c r="O79" s="89"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13</v>
       </c>
-      <c r="B80" s="108"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="109"/>
-      <c r="G80" s="109"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
       <c r="H80" s="21"/>
       <c r="I80" s="14"/>
-      <c r="J80" s="110"/>
-      <c r="K80" s="111"/>
-      <c r="L80" s="110"/>
-      <c r="M80" s="112"/>
-      <c r="N80" s="112"/>
-      <c r="O80" s="113"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J80" s="90"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="90"/>
+      <c r="M80" s="92"/>
+      <c r="N80" s="92"/>
+      <c r="O80" s="93"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
-      <c r="B81" s="116"/>
-      <c r="C81" s="101"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="149"/>
-      <c r="G81" s="149"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
       <c r="H81" s="9"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="79"/>
-      <c r="K81" s="79"/>
-      <c r="L81" s="79"/>
-      <c r="M81" s="79"/>
-      <c r="N81" s="79"/>
-      <c r="O81" s="80"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J81" s="78"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+      <c r="O81" s="89"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
       <c r="H82" s="21"/>
       <c r="I82" s="14"/>
-      <c r="J82" s="110"/>
-      <c r="K82" s="111"/>
-      <c r="L82" s="110"/>
-      <c r="M82" s="112"/>
-      <c r="N82" s="112"/>
-      <c r="O82" s="113"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J82" s="90"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="92"/>
+      <c r="N82" s="92"/>
+      <c r="O82" s="93"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>16</v>
       </c>
-      <c r="B83" s="116"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="149"/>
-      <c r="G83" s="149"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
       <c r="H83" s="9"/>
       <c r="I83" s="12"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="79"/>
-      <c r="O83" s="80"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J83" s="78"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="78"/>
+      <c r="N83" s="78"/>
+      <c r="O83" s="89"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>17</v>
       </c>
-      <c r="B84" s="108"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="109"/>
-      <c r="G84" s="109"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
       <c r="H84" s="21"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="110"/>
-      <c r="K84" s="111"/>
-      <c r="L84" s="110"/>
-      <c r="M84" s="112"/>
-      <c r="N84" s="112"/>
-      <c r="O84" s="113"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J84" s="90"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="90"/>
+      <c r="M84" s="92"/>
+      <c r="N84" s="92"/>
+      <c r="O84" s="93"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>18</v>
       </c>
-      <c r="B85" s="116"/>
-      <c r="C85" s="101"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="149"/>
-      <c r="G85" s="149"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
       <c r="H85" s="9"/>
       <c r="I85" s="12"/>
-      <c r="J85" s="79"/>
-      <c r="K85" s="79"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="79"/>
-      <c r="N85" s="79"/>
-      <c r="O85" s="80"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="89"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>19</v>
       </c>
-      <c r="B86" s="108"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="109"/>
-      <c r="G86" s="109"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
       <c r="H86" s="21"/>
       <c r="I86" s="14"/>
-      <c r="J86" s="110"/>
-      <c r="K86" s="111"/>
-      <c r="L86" s="110"/>
-      <c r="M86" s="112"/>
-      <c r="N86" s="112"/>
-      <c r="O86" s="113"/>
-    </row>
-    <row r="87" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J86" s="90"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="90"/>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
+      <c r="O86" s="93"/>
+    </row>
+    <row r="87" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>20</v>
       </c>
-      <c r="B87" s="105"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="136"/>
       <c r="H87" s="11"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="63"/>
-      <c r="K87" s="63"/>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63"/>
-      <c r="N87" s="63"/>
-      <c r="O87" s="64"/>
+      <c r="J87" s="122"/>
+      <c r="K87" s="122"/>
+      <c r="L87" s="122"/>
+      <c r="M87" s="122"/>
+      <c r="N87" s="122"/>
+      <c r="O87" s="137"/>
       <c r="P87" s="24"/>
       <c r="Q87" s="24"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="20"/>
@@ -5014,7 +6452,7 @@
       <c r="Q88" s="24"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="20"/>
@@ -5028,607 +6466,607 @@
       <c r="Q89" s="24"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:22" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B90" s="65" t="s">
+    <row r="90" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B90" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
-      <c r="M90" s="66"/>
-      <c r="N90" s="66"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="65" t="s">
+      <c r="C90" s="98"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="98"/>
+      <c r="J90" s="98"/>
+      <c r="K90" s="98"/>
+      <c r="L90" s="98"/>
+      <c r="M90" s="98"/>
+      <c r="N90" s="98"/>
+      <c r="O90" s="99"/>
+      <c r="P90" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="Q90" s="66"/>
-      <c r="R90" s="66"/>
-      <c r="S90" s="66"/>
-      <c r="T90" s="66"/>
-      <c r="U90" s="66"/>
-      <c r="V90" s="67"/>
-    </row>
-    <row r="91" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B91" s="114" t="s">
+      <c r="Q90" s="98"/>
+      <c r="R90" s="98"/>
+      <c r="S90" s="98"/>
+      <c r="T90" s="98"/>
+      <c r="U90" s="98"/>
+      <c r="V90" s="99"/>
+    </row>
+    <row r="91" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="B91" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="115"/>
-      <c r="D91" s="81" t="s">
+      <c r="C91" s="104"/>
+      <c r="D91" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="E91" s="81"/>
-      <c r="F91" s="132" t="s">
+      <c r="E91" s="100"/>
+      <c r="F91" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="G91" s="133"/>
+      <c r="G91" s="102"/>
       <c r="H91" s="33" t="s">
         <v>69</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J91" s="134" t="s">
+      <c r="J91" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="K91" s="115"/>
-      <c r="L91" s="81" t="s">
+      <c r="K91" s="104"/>
+      <c r="L91" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="M91" s="81"/>
-      <c r="N91" s="81"/>
-      <c r="O91" s="82"/>
-      <c r="P91" s="89" t="s">
+      <c r="M91" s="100"/>
+      <c r="N91" s="100"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="Q91" s="90"/>
-      <c r="R91" s="91" t="s">
+      <c r="Q91" s="159"/>
+      <c r="R91" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="S91" s="91"/>
-      <c r="T91" s="81" t="s">
+      <c r="S91" s="160"/>
+      <c r="T91" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="U91" s="81"/>
-      <c r="V91" s="82"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U91" s="100"/>
+      <c r="V91" s="105"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="E92" s="77"/>
-      <c r="F92" s="109">
+      <c r="C92" s="52"/>
+      <c r="D92" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="52"/>
+      <c r="F92" s="77">
         <v>500</v>
       </c>
-      <c r="G92" s="109"/>
+      <c r="G92" s="77"/>
       <c r="H92" s="21" t="s">
         <v>63</v>
       </c>
       <c r="I92" s="14">
         <v>5</v>
       </c>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="78"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="88"/>
-      <c r="R92" s="88"/>
-      <c r="S92" s="88"/>
-      <c r="T92" s="77"/>
-      <c r="U92" s="77"/>
-      <c r="V92" s="78"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="52"/>
+      <c r="O92" s="132"/>
+      <c r="P92" s="152"/>
+      <c r="Q92" s="153"/>
+      <c r="R92" s="153"/>
+      <c r="S92" s="153"/>
+      <c r="T92" s="52"/>
+      <c r="U92" s="52"/>
+      <c r="V92" s="132"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
-      <c r="B93" s="116"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="145"/>
-      <c r="G93" s="146"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="88"/>
       <c r="H93" s="9"/>
       <c r="I93" s="12"/>
-      <c r="J93" s="79"/>
-      <c r="K93" s="79"/>
-      <c r="L93" s="79"/>
-      <c r="M93" s="79"/>
-      <c r="N93" s="79"/>
-      <c r="O93" s="80"/>
-      <c r="P93" s="83"/>
-      <c r="Q93" s="84"/>
-      <c r="R93" s="85"/>
-      <c r="S93" s="86"/>
-      <c r="T93" s="79"/>
-      <c r="U93" s="79"/>
-      <c r="V93" s="80"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J93" s="78"/>
+      <c r="K93" s="78"/>
+      <c r="L93" s="78"/>
+      <c r="M93" s="78"/>
+      <c r="N93" s="78"/>
+      <c r="O93" s="89"/>
+      <c r="P93" s="154"/>
+      <c r="Q93" s="155"/>
+      <c r="R93" s="156"/>
+      <c r="S93" s="157"/>
+      <c r="T93" s="78"/>
+      <c r="U93" s="78"/>
+      <c r="V93" s="89"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
-      <c r="B94" s="108"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="109"/>
-      <c r="G94" s="109"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
       <c r="H94" s="21"/>
       <c r="I94" s="14"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
-      <c r="M94" s="77"/>
-      <c r="N94" s="77"/>
-      <c r="O94" s="78"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="88"/>
-      <c r="R94" s="88"/>
-      <c r="S94" s="88"/>
-      <c r="T94" s="77"/>
-      <c r="U94" s="77"/>
-      <c r="V94" s="78"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="132"/>
+      <c r="P94" s="152"/>
+      <c r="Q94" s="153"/>
+      <c r="R94" s="153"/>
+      <c r="S94" s="153"/>
+      <c r="T94" s="52"/>
+      <c r="U94" s="52"/>
+      <c r="V94" s="132"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
-      <c r="B95" s="116"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="79"/>
-      <c r="E95" s="79"/>
-      <c r="F95" s="145"/>
-      <c r="G95" s="146"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="88"/>
       <c r="H95" s="9"/>
       <c r="I95" s="12"/>
-      <c r="J95" s="79"/>
-      <c r="K95" s="79"/>
-      <c r="L95" s="79"/>
-      <c r="M95" s="79"/>
-      <c r="N95" s="79"/>
-      <c r="O95" s="80"/>
-      <c r="P95" s="83"/>
-      <c r="Q95" s="84"/>
-      <c r="R95" s="85"/>
-      <c r="S95" s="86"/>
-      <c r="T95" s="79"/>
-      <c r="U95" s="79"/>
-      <c r="V95" s="80"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J95" s="78"/>
+      <c r="K95" s="78"/>
+      <c r="L95" s="78"/>
+      <c r="M95" s="78"/>
+      <c r="N95" s="78"/>
+      <c r="O95" s="89"/>
+      <c r="P95" s="154"/>
+      <c r="Q95" s="155"/>
+      <c r="R95" s="156"/>
+      <c r="S95" s="157"/>
+      <c r="T95" s="78"/>
+      <c r="U95" s="78"/>
+      <c r="V95" s="89"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
-      <c r="B96" s="108"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="109"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
       <c r="H96" s="21"/>
       <c r="I96" s="14"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="77"/>
-      <c r="L96" s="77"/>
-      <c r="M96" s="77"/>
-      <c r="N96" s="77"/>
-      <c r="O96" s="78"/>
-      <c r="P96" s="87"/>
-      <c r="Q96" s="88"/>
-      <c r="R96" s="88"/>
-      <c r="S96" s="88"/>
-      <c r="T96" s="77"/>
-      <c r="U96" s="77"/>
-      <c r="V96" s="78"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J96" s="52"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="52"/>
+      <c r="O96" s="132"/>
+      <c r="P96" s="152"/>
+      <c r="Q96" s="153"/>
+      <c r="R96" s="153"/>
+      <c r="S96" s="153"/>
+      <c r="T96" s="52"/>
+      <c r="U96" s="52"/>
+      <c r="V96" s="132"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
-      <c r="B97" s="116"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="79"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="145"/>
-      <c r="G97" s="146"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="87"/>
+      <c r="G97" s="88"/>
       <c r="H97" s="9"/>
       <c r="I97" s="12"/>
-      <c r="J97" s="79"/>
-      <c r="K97" s="79"/>
-      <c r="L97" s="79"/>
-      <c r="M97" s="79"/>
-      <c r="N97" s="79"/>
-      <c r="O97" s="80"/>
-      <c r="P97" s="83"/>
-      <c r="Q97" s="84"/>
-      <c r="R97" s="85"/>
-      <c r="S97" s="86"/>
-      <c r="T97" s="79"/>
-      <c r="U97" s="79"/>
-      <c r="V97" s="80"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J97" s="78"/>
+      <c r="K97" s="78"/>
+      <c r="L97" s="78"/>
+      <c r="M97" s="78"/>
+      <c r="N97" s="78"/>
+      <c r="O97" s="89"/>
+      <c r="P97" s="154"/>
+      <c r="Q97" s="155"/>
+      <c r="R97" s="156"/>
+      <c r="S97" s="157"/>
+      <c r="T97" s="78"/>
+      <c r="U97" s="78"/>
+      <c r="V97" s="89"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
-      <c r="B98" s="108"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="109"/>
-      <c r="G98" s="109"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
       <c r="H98" s="21"/>
       <c r="I98" s="14"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
-      <c r="M98" s="77"/>
-      <c r="N98" s="77"/>
-      <c r="O98" s="78"/>
-      <c r="P98" s="87"/>
-      <c r="Q98" s="88"/>
-      <c r="R98" s="88"/>
-      <c r="S98" s="88"/>
-      <c r="T98" s="77"/>
-      <c r="U98" s="77"/>
-      <c r="V98" s="78"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="132"/>
+      <c r="P98" s="152"/>
+      <c r="Q98" s="153"/>
+      <c r="R98" s="153"/>
+      <c r="S98" s="153"/>
+      <c r="T98" s="52"/>
+      <c r="U98" s="52"/>
+      <c r="V98" s="132"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
-      <c r="B99" s="116"/>
-      <c r="C99" s="101"/>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="145"/>
-      <c r="G99" s="146"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="88"/>
       <c r="H99" s="9"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
-      <c r="N99" s="79"/>
-      <c r="O99" s="80"/>
-      <c r="P99" s="83"/>
-      <c r="Q99" s="84"/>
-      <c r="R99" s="85"/>
-      <c r="S99" s="86"/>
-      <c r="T99" s="79"/>
-      <c r="U99" s="79"/>
-      <c r="V99" s="80"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J99" s="78"/>
+      <c r="K99" s="78"/>
+      <c r="L99" s="78"/>
+      <c r="M99" s="78"/>
+      <c r="N99" s="78"/>
+      <c r="O99" s="89"/>
+      <c r="P99" s="154"/>
+      <c r="Q99" s="155"/>
+      <c r="R99" s="156"/>
+      <c r="S99" s="157"/>
+      <c r="T99" s="78"/>
+      <c r="U99" s="78"/>
+      <c r="V99" s="89"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
-      <c r="B100" s="108"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="109"/>
-      <c r="G100" s="109"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
       <c r="H100" s="21"/>
       <c r="I100" s="14"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="L100" s="77"/>
-      <c r="M100" s="77"/>
-      <c r="N100" s="77"/>
-      <c r="O100" s="78"/>
-      <c r="P100" s="87"/>
-      <c r="Q100" s="88"/>
-      <c r="R100" s="88"/>
-      <c r="S100" s="88"/>
-      <c r="T100" s="77"/>
-      <c r="U100" s="77"/>
-      <c r="V100" s="78"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="132"/>
+      <c r="P100" s="152"/>
+      <c r="Q100" s="153"/>
+      <c r="R100" s="153"/>
+      <c r="S100" s="153"/>
+      <c r="T100" s="52"/>
+      <c r="U100" s="52"/>
+      <c r="V100" s="132"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
-      <c r="B101" s="116"/>
-      <c r="C101" s="101"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="145"/>
-      <c r="G101" s="146"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="9"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="79"/>
-      <c r="K101" s="79"/>
-      <c r="L101" s="79"/>
-      <c r="M101" s="79"/>
-      <c r="N101" s="79"/>
-      <c r="O101" s="80"/>
-      <c r="P101" s="83"/>
-      <c r="Q101" s="84"/>
-      <c r="R101" s="85"/>
-      <c r="S101" s="86"/>
-      <c r="T101" s="79"/>
-      <c r="U101" s="79"/>
-      <c r="V101" s="80"/>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="78"/>
+      <c r="N101" s="78"/>
+      <c r="O101" s="89"/>
+      <c r="P101" s="154"/>
+      <c r="Q101" s="155"/>
+      <c r="R101" s="156"/>
+      <c r="S101" s="157"/>
+      <c r="T101" s="78"/>
+      <c r="U101" s="78"/>
+      <c r="V101" s="89"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="109"/>
-      <c r="G102" s="109"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
       <c r="H102" s="21"/>
       <c r="I102" s="14"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="77"/>
-      <c r="L102" s="77"/>
-      <c r="M102" s="77"/>
-      <c r="N102" s="77"/>
-      <c r="O102" s="78"/>
-      <c r="P102" s="87"/>
-      <c r="Q102" s="88"/>
-      <c r="R102" s="88"/>
-      <c r="S102" s="88"/>
-      <c r="T102" s="77"/>
-      <c r="U102" s="77"/>
-      <c r="V102" s="78"/>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+      <c r="O102" s="132"/>
+      <c r="P102" s="152"/>
+      <c r="Q102" s="153"/>
+      <c r="R102" s="153"/>
+      <c r="S102" s="153"/>
+      <c r="T102" s="52"/>
+      <c r="U102" s="52"/>
+      <c r="V102" s="132"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
-      <c r="B103" s="116"/>
-      <c r="C103" s="101"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="145"/>
-      <c r="G103" s="146"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="88"/>
       <c r="H103" s="9"/>
       <c r="I103" s="12"/>
-      <c r="J103" s="79"/>
-      <c r="K103" s="79"/>
-      <c r="L103" s="79"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="79"/>
-      <c r="O103" s="80"/>
-      <c r="P103" s="83"/>
-      <c r="Q103" s="84"/>
-      <c r="R103" s="85"/>
-      <c r="S103" s="86"/>
-      <c r="T103" s="79"/>
-      <c r="U103" s="79"/>
-      <c r="V103" s="80"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="78"/>
+      <c r="O103" s="89"/>
+      <c r="P103" s="154"/>
+      <c r="Q103" s="155"/>
+      <c r="R103" s="156"/>
+      <c r="S103" s="157"/>
+      <c r="T103" s="78"/>
+      <c r="U103" s="78"/>
+      <c r="V103" s="89"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
-      <c r="B104" s="108"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="109"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
       <c r="H104" s="21"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="77"/>
-      <c r="N104" s="77"/>
-      <c r="O104" s="78"/>
-      <c r="P104" s="87"/>
-      <c r="Q104" s="88"/>
-      <c r="R104" s="88"/>
-      <c r="S104" s="88"/>
-      <c r="T104" s="77"/>
-      <c r="U104" s="77"/>
-      <c r="V104" s="78"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="132"/>
+      <c r="P104" s="152"/>
+      <c r="Q104" s="153"/>
+      <c r="R104" s="153"/>
+      <c r="S104" s="153"/>
+      <c r="T104" s="52"/>
+      <c r="U104" s="52"/>
+      <c r="V104" s="132"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
-      <c r="B105" s="116"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="145"/>
-      <c r="G105" s="146"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="88"/>
       <c r="H105" s="9"/>
       <c r="I105" s="12"/>
-      <c r="J105" s="79"/>
-      <c r="K105" s="79"/>
-      <c r="L105" s="79"/>
-      <c r="M105" s="79"/>
-      <c r="N105" s="79"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="83"/>
-      <c r="Q105" s="84"/>
-      <c r="R105" s="85"/>
-      <c r="S105" s="86"/>
-      <c r="T105" s="79"/>
-      <c r="U105" s="79"/>
-      <c r="V105" s="80"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="78"/>
+      <c r="O105" s="89"/>
+      <c r="P105" s="154"/>
+      <c r="Q105" s="155"/>
+      <c r="R105" s="156"/>
+      <c r="S105" s="157"/>
+      <c r="T105" s="78"/>
+      <c r="U105" s="78"/>
+      <c r="V105" s="89"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15</v>
       </c>
-      <c r="B106" s="108"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="109"/>
-      <c r="G106" s="109"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
       <c r="H106" s="21"/>
       <c r="I106" s="14"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="77"/>
-      <c r="M106" s="77"/>
-      <c r="N106" s="77"/>
-      <c r="O106" s="78"/>
-      <c r="P106" s="87"/>
-      <c r="Q106" s="88"/>
-      <c r="R106" s="88"/>
-      <c r="S106" s="88"/>
-      <c r="T106" s="77"/>
-      <c r="U106" s="77"/>
-      <c r="V106" s="78"/>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="52"/>
+      <c r="O106" s="132"/>
+      <c r="P106" s="152"/>
+      <c r="Q106" s="153"/>
+      <c r="R106" s="153"/>
+      <c r="S106" s="153"/>
+      <c r="T106" s="52"/>
+      <c r="U106" s="52"/>
+      <c r="V106" s="132"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16</v>
       </c>
-      <c r="B107" s="116"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="145"/>
-      <c r="G107" s="146"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="88"/>
       <c r="H107" s="9"/>
       <c r="I107" s="12"/>
-      <c r="J107" s="79"/>
-      <c r="K107" s="79"/>
-      <c r="L107" s="79"/>
-      <c r="M107" s="79"/>
-      <c r="N107" s="79"/>
-      <c r="O107" s="80"/>
-      <c r="P107" s="83"/>
-      <c r="Q107" s="84"/>
-      <c r="R107" s="85"/>
-      <c r="S107" s="86"/>
-      <c r="T107" s="79"/>
-      <c r="U107" s="79"/>
-      <c r="V107" s="80"/>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="78"/>
+      <c r="O107" s="89"/>
+      <c r="P107" s="154"/>
+      <c r="Q107" s="155"/>
+      <c r="R107" s="156"/>
+      <c r="S107" s="157"/>
+      <c r="T107" s="78"/>
+      <c r="U107" s="78"/>
+      <c r="V107" s="89"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
-      <c r="B108" s="108"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="109"/>
-      <c r="G108" s="109"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
       <c r="H108" s="21"/>
       <c r="I108" s="14"/>
-      <c r="J108" s="77"/>
-      <c r="K108" s="77"/>
-      <c r="L108" s="77"/>
-      <c r="M108" s="77"/>
-      <c r="N108" s="77"/>
-      <c r="O108" s="78"/>
-      <c r="P108" s="87"/>
-      <c r="Q108" s="88"/>
-      <c r="R108" s="88"/>
-      <c r="S108" s="88"/>
-      <c r="T108" s="77"/>
-      <c r="U108" s="77"/>
-      <c r="V108" s="78"/>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J108" s="52"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="52"/>
+      <c r="O108" s="132"/>
+      <c r="P108" s="152"/>
+      <c r="Q108" s="153"/>
+      <c r="R108" s="153"/>
+      <c r="S108" s="153"/>
+      <c r="T108" s="52"/>
+      <c r="U108" s="52"/>
+      <c r="V108" s="132"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
-      <c r="B109" s="116"/>
-      <c r="C109" s="101"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="145"/>
-      <c r="G109" s="146"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="88"/>
       <c r="H109" s="9"/>
       <c r="I109" s="12"/>
-      <c r="J109" s="79"/>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="79"/>
-      <c r="O109" s="80"/>
-      <c r="P109" s="83"/>
-      <c r="Q109" s="84"/>
-      <c r="R109" s="85"/>
-      <c r="S109" s="86"/>
-      <c r="T109" s="79"/>
-      <c r="U109" s="79"/>
-      <c r="V109" s="80"/>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J109" s="78"/>
+      <c r="K109" s="78"/>
+      <c r="L109" s="78"/>
+      <c r="M109" s="78"/>
+      <c r="N109" s="78"/>
+      <c r="O109" s="89"/>
+      <c r="P109" s="154"/>
+      <c r="Q109" s="155"/>
+      <c r="R109" s="156"/>
+      <c r="S109" s="157"/>
+      <c r="T109" s="78"/>
+      <c r="U109" s="78"/>
+      <c r="V109" s="89"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19</v>
       </c>
-      <c r="B110" s="108"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="109"/>
-      <c r="G110" s="109"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
       <c r="H110" s="21"/>
       <c r="I110" s="14"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="77"/>
-      <c r="L110" s="77"/>
-      <c r="M110" s="77"/>
-      <c r="N110" s="77"/>
-      <c r="O110" s="78"/>
-      <c r="P110" s="87"/>
-      <c r="Q110" s="88"/>
-      <c r="R110" s="88"/>
-      <c r="S110" s="88"/>
-      <c r="T110" s="77"/>
-      <c r="U110" s="77"/>
-      <c r="V110" s="78"/>
-    </row>
-    <row r="111" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="52"/>
+      <c r="O110" s="132"/>
+      <c r="P110" s="152"/>
+      <c r="Q110" s="153"/>
+      <c r="R110" s="153"/>
+      <c r="S110" s="153"/>
+      <c r="T110" s="52"/>
+      <c r="U110" s="52"/>
+      <c r="V110" s="132"/>
+    </row>
+    <row r="111" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>20</v>
       </c>
-      <c r="B111" s="105"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="63"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="147"/>
-      <c r="G111" s="148"/>
+      <c r="B111" s="130"/>
+      <c r="C111" s="131"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="122"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="95"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
-      <c r="J111" s="63"/>
-      <c r="K111" s="63"/>
-      <c r="L111" s="63"/>
-      <c r="M111" s="63"/>
-      <c r="N111" s="63"/>
-      <c r="O111" s="64"/>
-      <c r="P111" s="92"/>
-      <c r="Q111" s="93"/>
-      <c r="R111" s="94"/>
-      <c r="S111" s="95"/>
-      <c r="T111" s="63"/>
-      <c r="U111" s="63"/>
-      <c r="V111" s="64"/>
-    </row>
-    <row r="112" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J111" s="122"/>
+      <c r="K111" s="122"/>
+      <c r="L111" s="122"/>
+      <c r="M111" s="122"/>
+      <c r="N111" s="122"/>
+      <c r="O111" s="137"/>
+      <c r="P111" s="148"/>
+      <c r="Q111" s="149"/>
+      <c r="R111" s="150"/>
+      <c r="S111" s="151"/>
+      <c r="T111" s="122"/>
+      <c r="U111" s="122"/>
+      <c r="V111" s="137"/>
+    </row>
+    <row r="112" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="20"/>
@@ -5641,153 +7079,155 @@
       <c r="Q112" s="24"/>
       <c r="S112" s="23"/>
     </row>
-    <row r="113" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="151" t="s">
+    <row r="113" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="152"/>
-      <c r="D113" s="152"/>
-      <c r="E113" s="152"/>
-      <c r="F113" s="152"/>
-      <c r="G113" s="152"/>
-      <c r="H113" s="152"/>
-      <c r="I113" s="152"/>
-      <c r="J113" s="152"/>
-      <c r="K113" s="152"/>
-      <c r="L113" s="152"/>
-      <c r="M113" s="152"/>
-      <c r="N113" s="153"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="66"/>
+      <c r="M113" s="66"/>
+      <c r="N113" s="68"/>
       <c r="P113" s="24"/>
       <c r="Q113" s="24"/>
       <c r="S113" s="23"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B114" s="135"/>
-      <c r="C114" s="136"/>
-      <c r="D114" s="136"/>
-      <c r="E114" s="136"/>
-      <c r="F114" s="136"/>
-      <c r="G114" s="136"/>
-      <c r="H114" s="136"/>
-      <c r="I114" s="136"/>
-      <c r="J114" s="136"/>
-      <c r="K114" s="136"/>
-      <c r="L114" s="136"/>
-      <c r="M114" s="136"/>
-      <c r="N114" s="137"/>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B114" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="107"/>
+      <c r="D114" s="107"/>
+      <c r="E114" s="107"/>
+      <c r="F114" s="107"/>
+      <c r="G114" s="107"/>
+      <c r="H114" s="107"/>
+      <c r="I114" s="107"/>
+      <c r="J114" s="107"/>
+      <c r="K114" s="107"/>
+      <c r="L114" s="107"/>
+      <c r="M114" s="107"/>
+      <c r="N114" s="108"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="24"/>
       <c r="S114" s="23"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B115" s="138"/>
-      <c r="C115" s="139"/>
-      <c r="D115" s="139"/>
-      <c r="E115" s="139"/>
-      <c r="F115" s="139"/>
-      <c r="G115" s="139"/>
-      <c r="H115" s="139"/>
-      <c r="I115" s="139"/>
-      <c r="J115" s="139"/>
-      <c r="K115" s="139"/>
-      <c r="L115" s="139"/>
-      <c r="M115" s="139"/>
-      <c r="N115" s="140"/>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B115" s="109"/>
+      <c r="C115" s="110"/>
+      <c r="D115" s="110"/>
+      <c r="E115" s="110"/>
+      <c r="F115" s="110"/>
+      <c r="G115" s="110"/>
+      <c r="H115" s="110"/>
+      <c r="I115" s="110"/>
+      <c r="J115" s="110"/>
+      <c r="K115" s="110"/>
+      <c r="L115" s="110"/>
+      <c r="M115" s="110"/>
+      <c r="N115" s="111"/>
       <c r="P115" s="24"/>
       <c r="Q115" s="24"/>
       <c r="S115" s="23"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B116" s="138"/>
-      <c r="C116" s="139"/>
-      <c r="D116" s="139"/>
-      <c r="E116" s="139"/>
-      <c r="F116" s="139"/>
-      <c r="G116" s="139"/>
-      <c r="H116" s="139"/>
-      <c r="I116" s="139"/>
-      <c r="J116" s="139"/>
-      <c r="K116" s="139"/>
-      <c r="L116" s="139"/>
-      <c r="M116" s="139"/>
-      <c r="N116" s="140"/>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B116" s="109"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="110"/>
+      <c r="I116" s="110"/>
+      <c r="J116" s="110"/>
+      <c r="K116" s="110"/>
+      <c r="L116" s="110"/>
+      <c r="M116" s="110"/>
+      <c r="N116" s="111"/>
       <c r="P116" s="24"/>
       <c r="Q116" s="24"/>
       <c r="S116" s="23"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B117" s="138"/>
-      <c r="C117" s="139"/>
-      <c r="D117" s="139"/>
-      <c r="E117" s="139"/>
-      <c r="F117" s="139"/>
-      <c r="G117" s="139"/>
-      <c r="H117" s="139"/>
-      <c r="I117" s="139"/>
-      <c r="J117" s="139"/>
-      <c r="K117" s="139"/>
-      <c r="L117" s="139"/>
-      <c r="M117" s="139"/>
-      <c r="N117" s="140"/>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B117" s="109"/>
+      <c r="C117" s="110"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="110"/>
+      <c r="F117" s="110"/>
+      <c r="G117" s="110"/>
+      <c r="H117" s="110"/>
+      <c r="I117" s="110"/>
+      <c r="J117" s="110"/>
+      <c r="K117" s="110"/>
+      <c r="L117" s="110"/>
+      <c r="M117" s="110"/>
+      <c r="N117" s="111"/>
       <c r="P117" s="24"/>
       <c r="Q117" s="24"/>
       <c r="S117" s="23"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B118" s="138"/>
-      <c r="C118" s="139"/>
-      <c r="D118" s="139"/>
-      <c r="E118" s="139"/>
-      <c r="F118" s="139"/>
-      <c r="G118" s="139"/>
-      <c r="H118" s="139"/>
-      <c r="I118" s="139"/>
-      <c r="J118" s="139"/>
-      <c r="K118" s="139"/>
-      <c r="L118" s="139"/>
-      <c r="M118" s="139"/>
-      <c r="N118" s="140"/>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B118" s="109"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="110"/>
+      <c r="F118" s="110"/>
+      <c r="G118" s="110"/>
+      <c r="H118" s="110"/>
+      <c r="I118" s="110"/>
+      <c r="J118" s="110"/>
+      <c r="K118" s="110"/>
+      <c r="L118" s="110"/>
+      <c r="M118" s="110"/>
+      <c r="N118" s="111"/>
       <c r="P118" s="24"/>
       <c r="Q118" s="24"/>
       <c r="S118" s="23"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B119" s="138"/>
-      <c r="C119" s="139"/>
-      <c r="D119" s="139"/>
-      <c r="E119" s="139"/>
-      <c r="F119" s="139"/>
-      <c r="G119" s="139"/>
-      <c r="H119" s="139"/>
-      <c r="I119" s="139"/>
-      <c r="J119" s="139"/>
-      <c r="K119" s="139"/>
-      <c r="L119" s="139"/>
-      <c r="M119" s="139"/>
-      <c r="N119" s="140"/>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B119" s="109"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="110"/>
+      <c r="G119" s="110"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="110"/>
+      <c r="J119" s="110"/>
+      <c r="K119" s="110"/>
+      <c r="L119" s="110"/>
+      <c r="M119" s="110"/>
+      <c r="N119" s="111"/>
       <c r="P119" s="24"/>
       <c r="Q119" s="24"/>
       <c r="S119" s="23"/>
     </row>
-    <row r="120" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="141"/>
-      <c r="C120" s="142"/>
-      <c r="D120" s="142"/>
-      <c r="E120" s="142"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="142"/>
-      <c r="H120" s="142"/>
-      <c r="I120" s="142"/>
-      <c r="J120" s="142"/>
-      <c r="K120" s="142"/>
-      <c r="L120" s="142"/>
-      <c r="M120" s="142"/>
-      <c r="N120" s="143"/>
+    <row r="120" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="112"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="113"/>
+      <c r="E120" s="113"/>
+      <c r="F120" s="113"/>
+      <c r="G120" s="113"/>
+      <c r="H120" s="113"/>
+      <c r="I120" s="113"/>
+      <c r="J120" s="113"/>
+      <c r="K120" s="113"/>
+      <c r="L120" s="113"/>
+      <c r="M120" s="113"/>
+      <c r="N120" s="114"/>
       <c r="P120" s="24"/>
       <c r="Q120" s="24"/>
       <c r="S120" s="23"/>
     </row>
-    <row r="121" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="20"/>
@@ -5800,700 +7240,712 @@
       <c r="Q121" s="24"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B122" s="129" t="s">
+    <row r="122" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B122" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C122" s="130"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="130"/>
-      <c r="F122" s="130"/>
-      <c r="G122" s="130"/>
-      <c r="H122" s="130"/>
-      <c r="I122" s="130"/>
-      <c r="J122" s="130"/>
-      <c r="K122" s="130"/>
-      <c r="L122" s="130"/>
-      <c r="M122" s="130"/>
-      <c r="N122" s="130"/>
-      <c r="O122" s="130"/>
-      <c r="P122" s="130"/>
-      <c r="Q122" s="131"/>
-    </row>
-    <row r="123" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="150" t="s">
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="48"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="48"/>
+      <c r="O122" s="48"/>
+      <c r="P122" s="48"/>
+      <c r="Q122" s="49"/>
+    </row>
+    <row r="123" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="C123" s="69"/>
-      <c r="D123" s="144"/>
-      <c r="E123" s="68" t="s">
+      <c r="C123" s="84"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F123" s="144"/>
-      <c r="G123" s="68" t="s">
+      <c r="F123" s="85"/>
+      <c r="G123" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="H123" s="69"/>
-      <c r="I123" s="144"/>
-      <c r="J123" s="68" t="s">
+      <c r="H123" s="84"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="K123" s="69"/>
-      <c r="L123" s="69"/>
-      <c r="M123" s="144"/>
-      <c r="N123" s="68" t="s">
+      <c r="K123" s="84"/>
+      <c r="L123" s="84"/>
+      <c r="M123" s="85"/>
+      <c r="N123" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="O123" s="144"/>
-      <c r="P123" s="68" t="s">
+      <c r="O123" s="85"/>
+      <c r="P123" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="Q123" s="70"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q123" s="96"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
-      <c r="B124" s="108"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="125"/>
-      <c r="F124" s="125"/>
-      <c r="G124" s="77"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="77"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="77"/>
-      <c r="L124" s="77"/>
-      <c r="M124" s="77"/>
-      <c r="N124" s="125"/>
-      <c r="O124" s="125"/>
-      <c r="P124" s="125"/>
-      <c r="Q124" s="126"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B124" s="51"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="115"/>
+      <c r="F124" s="115"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="52"/>
+      <c r="J124" s="52"/>
+      <c r="K124" s="52"/>
+      <c r="L124" s="52"/>
+      <c r="M124" s="52"/>
+      <c r="N124" s="115"/>
+      <c r="O124" s="115"/>
+      <c r="P124" s="115"/>
+      <c r="Q124" s="119"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
-      <c r="B125" s="128"/>
-      <c r="C125" s="79"/>
-      <c r="D125" s="79"/>
-      <c r="E125" s="123"/>
-      <c r="F125" s="123"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
-      <c r="I125" s="79"/>
-      <c r="J125" s="79"/>
-      <c r="K125" s="79"/>
-      <c r="L125" s="79"/>
-      <c r="M125" s="79"/>
-      <c r="N125" s="123"/>
-      <c r="O125" s="123"/>
-      <c r="P125" s="123"/>
-      <c r="Q125" s="124"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B125" s="80"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="116"/>
+      <c r="F125" s="116"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="78"/>
+      <c r="J125" s="78"/>
+      <c r="K125" s="78"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="78"/>
+      <c r="N125" s="116"/>
+      <c r="O125" s="116"/>
+      <c r="P125" s="116"/>
+      <c r="Q125" s="118"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
-      <c r="B126" s="108"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="125"/>
-      <c r="F126" s="125"/>
-      <c r="G126" s="77"/>
-      <c r="H126" s="77"/>
-      <c r="I126" s="77"/>
-      <c r="J126" s="77"/>
-      <c r="K126" s="77"/>
-      <c r="L126" s="77"/>
-      <c r="M126" s="77"/>
-      <c r="N126" s="125"/>
-      <c r="O126" s="125"/>
-      <c r="P126" s="125"/>
-      <c r="Q126" s="126"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B126" s="51"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="115"/>
+      <c r="F126" s="115"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="52"/>
+      <c r="J126" s="52"/>
+      <c r="K126" s="52"/>
+      <c r="L126" s="52"/>
+      <c r="M126" s="52"/>
+      <c r="N126" s="115"/>
+      <c r="O126" s="115"/>
+      <c r="P126" s="115"/>
+      <c r="Q126" s="119"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
-      <c r="B127" s="128"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="123"/>
-      <c r="F127" s="123"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="79"/>
-      <c r="I127" s="79"/>
-      <c r="J127" s="79"/>
-      <c r="K127" s="79"/>
-      <c r="L127" s="79"/>
-      <c r="M127" s="79"/>
-      <c r="N127" s="123"/>
-      <c r="O127" s="123"/>
-      <c r="P127" s="123"/>
-      <c r="Q127" s="124"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B127" s="80"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="116"/>
+      <c r="G127" s="78"/>
+      <c r="H127" s="78"/>
+      <c r="I127" s="78"/>
+      <c r="J127" s="78"/>
+      <c r="K127" s="78"/>
+      <c r="L127" s="78"/>
+      <c r="M127" s="78"/>
+      <c r="N127" s="116"/>
+      <c r="O127" s="116"/>
+      <c r="P127" s="116"/>
+      <c r="Q127" s="118"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
-      <c r="B128" s="108"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="125"/>
-      <c r="F128" s="125"/>
-      <c r="G128" s="77"/>
-      <c r="H128" s="77"/>
-      <c r="I128" s="77"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="77"/>
-      <c r="L128" s="77"/>
-      <c r="M128" s="77"/>
-      <c r="N128" s="125"/>
-      <c r="O128" s="125"/>
-      <c r="P128" s="125"/>
-      <c r="Q128" s="126"/>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B128" s="51"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="115"/>
+      <c r="F128" s="115"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="52"/>
+      <c r="J128" s="52"/>
+      <c r="K128" s="52"/>
+      <c r="L128" s="52"/>
+      <c r="M128" s="52"/>
+      <c r="N128" s="115"/>
+      <c r="O128" s="115"/>
+      <c r="P128" s="115"/>
+      <c r="Q128" s="119"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
-      <c r="B129" s="128"/>
-      <c r="C129" s="79"/>
-      <c r="D129" s="79"/>
-      <c r="E129" s="123"/>
-      <c r="F129" s="123"/>
-      <c r="G129" s="79"/>
-      <c r="H129" s="79"/>
-      <c r="I129" s="79"/>
-      <c r="J129" s="79"/>
-      <c r="K129" s="79"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="79"/>
-      <c r="N129" s="123"/>
-      <c r="O129" s="123"/>
-      <c r="P129" s="123"/>
-      <c r="Q129" s="124"/>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B129" s="80"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="116"/>
+      <c r="F129" s="116"/>
+      <c r="G129" s="78"/>
+      <c r="H129" s="78"/>
+      <c r="I129" s="78"/>
+      <c r="J129" s="78"/>
+      <c r="K129" s="78"/>
+      <c r="L129" s="78"/>
+      <c r="M129" s="78"/>
+      <c r="N129" s="116"/>
+      <c r="O129" s="116"/>
+      <c r="P129" s="116"/>
+      <c r="Q129" s="118"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
-      <c r="B130" s="108"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="125"/>
-      <c r="F130" s="125"/>
-      <c r="G130" s="77"/>
-      <c r="H130" s="77"/>
-      <c r="I130" s="77"/>
-      <c r="J130" s="77"/>
-      <c r="K130" s="77"/>
-      <c r="L130" s="77"/>
-      <c r="M130" s="77"/>
-      <c r="N130" s="125"/>
-      <c r="O130" s="125"/>
-      <c r="P130" s="125"/>
-      <c r="Q130" s="126"/>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B130" s="51"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="115"/>
+      <c r="F130" s="115"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="52"/>
+      <c r="K130" s="52"/>
+      <c r="L130" s="52"/>
+      <c r="M130" s="52"/>
+      <c r="N130" s="115"/>
+      <c r="O130" s="115"/>
+      <c r="P130" s="115"/>
+      <c r="Q130" s="119"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
-      <c r="B131" s="128"/>
-      <c r="C131" s="79"/>
-      <c r="D131" s="79"/>
-      <c r="E131" s="123"/>
-      <c r="F131" s="123"/>
-      <c r="G131" s="79"/>
-      <c r="H131" s="79"/>
-      <c r="I131" s="79"/>
-      <c r="J131" s="79"/>
-      <c r="K131" s="79"/>
-      <c r="L131" s="79"/>
-      <c r="M131" s="79"/>
-      <c r="N131" s="123"/>
-      <c r="O131" s="123"/>
-      <c r="P131" s="123"/>
-      <c r="Q131" s="124"/>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B131" s="80"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="116"/>
+      <c r="F131" s="116"/>
+      <c r="G131" s="78"/>
+      <c r="H131" s="78"/>
+      <c r="I131" s="78"/>
+      <c r="J131" s="78"/>
+      <c r="K131" s="78"/>
+      <c r="L131" s="78"/>
+      <c r="M131" s="78"/>
+      <c r="N131" s="116"/>
+      <c r="O131" s="116"/>
+      <c r="P131" s="116"/>
+      <c r="Q131" s="118"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
-      <c r="B132" s="108"/>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="125"/>
-      <c r="F132" s="125"/>
-      <c r="G132" s="77"/>
-      <c r="H132" s="77"/>
-      <c r="I132" s="77"/>
-      <c r="J132" s="77"/>
-      <c r="K132" s="77"/>
-      <c r="L132" s="77"/>
-      <c r="M132" s="77"/>
-      <c r="N132" s="125"/>
-      <c r="O132" s="125"/>
-      <c r="P132" s="125"/>
-      <c r="Q132" s="126"/>
-    </row>
-    <row r="133" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="51"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="115"/>
+      <c r="F132" s="115"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="52"/>
+      <c r="L132" s="52"/>
+      <c r="M132" s="52"/>
+      <c r="N132" s="115"/>
+      <c r="O132" s="115"/>
+      <c r="P132" s="115"/>
+      <c r="Q132" s="119"/>
+    </row>
+    <row r="133" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>10</v>
       </c>
-      <c r="B133" s="121"/>
-      <c r="C133" s="63"/>
-      <c r="D133" s="63"/>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
-      <c r="G133" s="63"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="63"/>
-      <c r="J133" s="63"/>
-      <c r="K133" s="63"/>
-      <c r="L133" s="63"/>
-      <c r="M133" s="63"/>
-      <c r="N133" s="122"/>
-      <c r="O133" s="122"/>
-      <c r="P133" s="122"/>
-      <c r="Q133" s="127"/>
-    </row>
-    <row r="134" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="135" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B133" s="123"/>
+      <c r="C133" s="122"/>
+      <c r="D133" s="122"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="117"/>
+      <c r="G133" s="122"/>
+      <c r="H133" s="122"/>
+      <c r="I133" s="122"/>
+      <c r="J133" s="122"/>
+      <c r="K133" s="122"/>
+      <c r="L133" s="122"/>
+      <c r="M133" s="122"/>
+      <c r="N133" s="117"/>
+      <c r="O133" s="117"/>
+      <c r="P133" s="117"/>
+      <c r="Q133" s="120"/>
+    </row>
+    <row r="134" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A135" s="15"/>
-      <c r="B135" s="71" t="s">
+      <c r="B135" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="72"/>
-      <c r="H135" s="72"/>
-      <c r="I135" s="72"/>
-      <c r="J135" s="72"/>
-      <c r="K135" s="72"/>
-      <c r="L135" s="72"/>
-      <c r="M135" s="72"/>
-      <c r="N135" s="72"/>
-      <c r="O135" s="72"/>
-      <c r="P135" s="72"/>
-      <c r="Q135" s="72"/>
-      <c r="R135" s="72"/>
-      <c r="S135" s="72"/>
-      <c r="T135" s="72"/>
-      <c r="U135" s="72"/>
-      <c r="V135" s="72"/>
-      <c r="W135" s="72"/>
-      <c r="X135" s="73"/>
+      <c r="C135" s="165"/>
+      <c r="D135" s="165"/>
+      <c r="E135" s="165"/>
+      <c r="F135" s="165"/>
+      <c r="G135" s="165"/>
+      <c r="H135" s="165"/>
+      <c r="I135" s="165"/>
+      <c r="J135" s="165"/>
+      <c r="K135" s="165"/>
+      <c r="L135" s="165"/>
+      <c r="M135" s="165"/>
+      <c r="N135" s="165"/>
+      <c r="O135" s="165"/>
+      <c r="P135" s="165"/>
+      <c r="Q135" s="165"/>
+      <c r="R135" s="165"/>
+      <c r="S135" s="165"/>
+      <c r="T135" s="165"/>
+      <c r="U135" s="165"/>
+      <c r="V135" s="165"/>
+      <c r="W135" s="165"/>
+      <c r="X135" s="166"/>
       <c r="Y135" s="39"/>
       <c r="Z135" s="34"/>
       <c r="AA135" s="34"/>
     </row>
-    <row r="136" spans="1:27" ht="21" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:27" ht="21" x14ac:dyDescent="0.35">
       <c r="A136" s="15"/>
-      <c r="B136" s="99" t="s">
+      <c r="B136" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="C136" s="75"/>
-      <c r="D136" s="75"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="75"/>
-      <c r="G136" s="75"/>
-      <c r="H136" s="75"/>
-      <c r="I136" s="75"/>
-      <c r="J136" s="75"/>
-      <c r="K136" s="75"/>
-      <c r="L136" s="75"/>
-      <c r="M136" s="75"/>
-      <c r="N136" s="100"/>
-      <c r="O136" s="74" t="s">
+      <c r="C136" s="145"/>
+      <c r="D136" s="145"/>
+      <c r="E136" s="145"/>
+      <c r="F136" s="145"/>
+      <c r="G136" s="145"/>
+      <c r="H136" s="145"/>
+      <c r="I136" s="145"/>
+      <c r="J136" s="145"/>
+      <c r="K136" s="145"/>
+      <c r="L136" s="145"/>
+      <c r="M136" s="145"/>
+      <c r="N136" s="146"/>
+      <c r="O136" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="P136" s="75"/>
-      <c r="Q136" s="75"/>
-      <c r="R136" s="75"/>
-      <c r="S136" s="75"/>
-      <c r="T136" s="75"/>
-      <c r="U136" s="75"/>
-      <c r="V136" s="75"/>
-      <c r="W136" s="75"/>
-      <c r="X136" s="76"/>
+      <c r="P136" s="145"/>
+      <c r="Q136" s="145"/>
+      <c r="R136" s="145"/>
+      <c r="S136" s="145"/>
+      <c r="T136" s="145"/>
+      <c r="U136" s="145"/>
+      <c r="V136" s="145"/>
+      <c r="W136" s="145"/>
+      <c r="X136" s="168"/>
       <c r="Y136" s="35"/>
       <c r="Z136" s="35"/>
       <c r="AA136" s="36"/>
     </row>
-    <row r="137" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C137" s="120" t="s">
+      <c r="C137" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="D137" s="120"/>
-      <c r="E137" s="120"/>
-      <c r="F137" s="120" t="s">
+      <c r="D137" s="121"/>
+      <c r="E137" s="121"/>
+      <c r="F137" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="G137" s="120"/>
-      <c r="H137" s="120"/>
-      <c r="I137" s="120" t="s">
+      <c r="G137" s="121"/>
+      <c r="H137" s="121"/>
+      <c r="I137" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="J137" s="120"/>
-      <c r="K137" s="120"/>
-      <c r="L137" s="97" t="s">
+      <c r="J137" s="121"/>
+      <c r="K137" s="121"/>
+      <c r="L137" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="M137" s="98"/>
+      <c r="M137" s="135"/>
       <c r="N137" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="O137" s="97" t="s">
+      <c r="O137" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="P137" s="98"/>
-      <c r="Q137" s="68" t="s">
+      <c r="P137" s="135"/>
+      <c r="Q137" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="R137" s="69"/>
-      <c r="S137" s="69"/>
-      <c r="T137" s="69"/>
-      <c r="U137" s="69"/>
-      <c r="V137" s="69"/>
-      <c r="W137" s="69"/>
-      <c r="X137" s="70"/>
+      <c r="R137" s="84"/>
+      <c r="S137" s="84"/>
+      <c r="T137" s="84"/>
+      <c r="U137" s="84"/>
+      <c r="V137" s="84"/>
+      <c r="W137" s="84"/>
+      <c r="X137" s="96"/>
       <c r="Y137" s="37"/>
       <c r="Z137" s="37"/>
       <c r="AA137" s="37"/>
     </row>
-    <row r="138" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <v>1</v>
       </c>
       <c r="B138" s="41">
         <v>1</v>
       </c>
-      <c r="C138" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="D138" s="104"/>
-      <c r="E138" s="104"/>
-      <c r="F138" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" s="104"/>
-      <c r="H138" s="104"/>
-      <c r="I138" s="104" t="s">
+      <c r="C138" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="J138" s="104"/>
-      <c r="K138" s="104"/>
-      <c r="L138" s="104" t="s">
+      <c r="D138" s="125"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="G138" s="125"/>
+      <c r="H138" s="125"/>
+      <c r="I138" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="J138" s="125"/>
+      <c r="K138" s="125"/>
+      <c r="L138" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="M138" s="104"/>
+      <c r="M138" s="125"/>
       <c r="N138" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="O138" s="77" t="s">
+      <c r="O138" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="P138" s="77"/>
-      <c r="Q138" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="R138" s="55"/>
-      <c r="S138" s="55"/>
-      <c r="T138" s="55"/>
-      <c r="U138" s="55"/>
-      <c r="V138" s="55"/>
-      <c r="W138" s="55"/>
-      <c r="X138" s="56"/>
+      <c r="P138" s="52"/>
+      <c r="Q138" s="138" t="s">
+        <v>160</v>
+      </c>
+      <c r="R138" s="139"/>
+      <c r="S138" s="139"/>
+      <c r="T138" s="139"/>
+      <c r="U138" s="139"/>
+      <c r="V138" s="139"/>
+      <c r="W138" s="139"/>
+      <c r="X138" s="140"/>
       <c r="Y138" s="38"/>
       <c r="Z138" s="38"/>
       <c r="AA138" s="38"/>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
         <v>2</v>
       </c>
       <c r="B139" s="42">
         <v>2</v>
       </c>
-      <c r="C139" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="D139" s="103"/>
-      <c r="E139" s="103"/>
-      <c r="F139" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="G139" s="103"/>
-      <c r="H139" s="103"/>
-      <c r="I139" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="J139" s="103"/>
-      <c r="K139" s="103"/>
-      <c r="L139" s="103" t="s">
+      <c r="C139" s="124" t="s">
+        <v>161</v>
+      </c>
+      <c r="D139" s="124"/>
+      <c r="E139" s="124"/>
+      <c r="F139" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="G139" s="124"/>
+      <c r="H139" s="124"/>
+      <c r="I139" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="J139" s="124"/>
+      <c r="K139" s="124"/>
+      <c r="L139" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="M139" s="103"/>
+      <c r="M139" s="124"/>
       <c r="N139" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="O139" s="101" t="s">
+      <c r="O139" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="P139" s="101"/>
-      <c r="Q139" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="R139" s="58"/>
-      <c r="S139" s="58"/>
-      <c r="T139" s="58"/>
-      <c r="U139" s="58"/>
-      <c r="V139" s="58"/>
-      <c r="W139" s="58"/>
-      <c r="X139" s="59"/>
+      <c r="P139" s="45"/>
+      <c r="Q139" s="141" t="s">
+        <v>164</v>
+      </c>
+      <c r="R139" s="142"/>
+      <c r="S139" s="142"/>
+      <c r="T139" s="142"/>
+      <c r="U139" s="142"/>
+      <c r="V139" s="142"/>
+      <c r="W139" s="142"/>
+      <c r="X139" s="143"/>
       <c r="Y139" s="38"/>
       <c r="Z139" s="38"/>
       <c r="AA139" s="38"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <v>3</v>
       </c>
-      <c r="B140" s="41"/>
-      <c r="C140" s="104"/>
-      <c r="D140" s="104"/>
-      <c r="E140" s="104"/>
-      <c r="F140" s="104"/>
-      <c r="G140" s="104"/>
-      <c r="H140" s="104"/>
-      <c r="I140" s="104"/>
-      <c r="J140" s="104"/>
-      <c r="K140" s="104"/>
-      <c r="L140" s="104"/>
-      <c r="M140" s="104"/>
-      <c r="N140" s="31"/>
-      <c r="O140" s="77"/>
-      <c r="P140" s="77"/>
-      <c r="Q140" s="54"/>
-      <c r="R140" s="55"/>
-      <c r="S140" s="55"/>
-      <c r="T140" s="55"/>
-      <c r="U140" s="55"/>
-      <c r="V140" s="55"/>
-      <c r="W140" s="55"/>
-      <c r="X140" s="56"/>
+      <c r="B140" s="41">
+        <v>3</v>
+      </c>
+      <c r="C140" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="D140" s="125"/>
+      <c r="E140" s="125"/>
+      <c r="F140" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="G140" s="125"/>
+      <c r="H140" s="125"/>
+      <c r="I140" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="J140" s="125"/>
+      <c r="K140" s="125"/>
+      <c r="L140" s="125" t="s">
+        <v>125</v>
+      </c>
+      <c r="M140" s="125"/>
+      <c r="N140" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="O140" s="52"/>
+      <c r="P140" s="52"/>
+      <c r="Q140" s="138"/>
+      <c r="R140" s="139"/>
+      <c r="S140" s="139"/>
+      <c r="T140" s="139"/>
+      <c r="U140" s="139"/>
+      <c r="V140" s="139"/>
+      <c r="W140" s="139"/>
+      <c r="X140" s="140"/>
       <c r="Y140" s="38"/>
       <c r="Z140" s="38"/>
       <c r="AA140" s="38"/>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>4</v>
       </c>
       <c r="B141" s="42"/>
-      <c r="C141" s="103"/>
-      <c r="D141" s="103"/>
-      <c r="E141" s="103"/>
-      <c r="F141" s="103"/>
-      <c r="G141" s="103"/>
-      <c r="H141" s="103"/>
-      <c r="I141" s="103"/>
-      <c r="J141" s="103"/>
-      <c r="K141" s="103"/>
-      <c r="L141" s="103"/>
-      <c r="M141" s="103"/>
+      <c r="C141" s="124"/>
+      <c r="D141" s="124"/>
+      <c r="E141" s="124"/>
+      <c r="F141" s="124"/>
+      <c r="G141" s="124"/>
+      <c r="H141" s="124"/>
+      <c r="I141" s="124"/>
+      <c r="J141" s="124"/>
+      <c r="K141" s="124"/>
+      <c r="L141" s="124"/>
+      <c r="M141" s="124"/>
       <c r="N141" s="32"/>
-      <c r="O141" s="101"/>
-      <c r="P141" s="101"/>
-      <c r="Q141" s="57"/>
-      <c r="R141" s="58"/>
-      <c r="S141" s="58"/>
-      <c r="T141" s="58"/>
-      <c r="U141" s="58"/>
-      <c r="V141" s="58"/>
-      <c r="W141" s="58"/>
-      <c r="X141" s="59"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="45"/>
+      <c r="Q141" s="141"/>
+      <c r="R141" s="142"/>
+      <c r="S141" s="142"/>
+      <c r="T141" s="142"/>
+      <c r="U141" s="142"/>
+      <c r="V141" s="142"/>
+      <c r="W141" s="142"/>
+      <c r="X141" s="143"/>
       <c r="Y141" s="38"/>
       <c r="Z141" s="38"/>
       <c r="AA141" s="38"/>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>5</v>
       </c>
       <c r="B142" s="41"/>
-      <c r="C142" s="104"/>
-      <c r="D142" s="104"/>
-      <c r="E142" s="104"/>
-      <c r="F142" s="104"/>
-      <c r="G142" s="104"/>
-      <c r="H142" s="104"/>
-      <c r="I142" s="104"/>
-      <c r="J142" s="104"/>
-      <c r="K142" s="104"/>
-      <c r="L142" s="104"/>
-      <c r="M142" s="104"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="125"/>
+      <c r="E142" s="125"/>
+      <c r="F142" s="125"/>
+      <c r="G142" s="125"/>
+      <c r="H142" s="125"/>
+      <c r="I142" s="125"/>
+      <c r="J142" s="125"/>
+      <c r="K142" s="125"/>
+      <c r="L142" s="125"/>
+      <c r="M142" s="125"/>
       <c r="N142" s="31"/>
-      <c r="O142" s="77"/>
-      <c r="P142" s="77"/>
-      <c r="Q142" s="54"/>
-      <c r="R142" s="55"/>
-      <c r="S142" s="55"/>
-      <c r="T142" s="55"/>
-      <c r="U142" s="55"/>
-      <c r="V142" s="55"/>
-      <c r="W142" s="55"/>
-      <c r="X142" s="56"/>
+      <c r="O142" s="52"/>
+      <c r="P142" s="52"/>
+      <c r="Q142" s="138"/>
+      <c r="R142" s="139"/>
+      <c r="S142" s="139"/>
+      <c r="T142" s="139"/>
+      <c r="U142" s="139"/>
+      <c r="V142" s="139"/>
+      <c r="W142" s="139"/>
+      <c r="X142" s="140"/>
       <c r="Y142" s="38"/>
       <c r="Z142" s="38"/>
       <c r="AA142" s="38"/>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>6</v>
       </c>
       <c r="B143" s="42"/>
-      <c r="C143" s="103"/>
-      <c r="D143" s="103"/>
-      <c r="E143" s="103"/>
-      <c r="F143" s="103"/>
-      <c r="G143" s="103"/>
-      <c r="H143" s="103"/>
-      <c r="I143" s="103"/>
-      <c r="J143" s="103"/>
-      <c r="K143" s="103"/>
-      <c r="L143" s="103"/>
-      <c r="M143" s="103"/>
+      <c r="C143" s="124"/>
+      <c r="D143" s="124"/>
+      <c r="E143" s="124"/>
+      <c r="F143" s="124"/>
+      <c r="G143" s="124"/>
+      <c r="H143" s="124"/>
+      <c r="I143" s="124"/>
+      <c r="J143" s="124"/>
+      <c r="K143" s="124"/>
+      <c r="L143" s="124"/>
+      <c r="M143" s="124"/>
       <c r="N143" s="32"/>
-      <c r="O143" s="101"/>
-      <c r="P143" s="101"/>
-      <c r="Q143" s="57"/>
-      <c r="R143" s="58"/>
-      <c r="S143" s="58"/>
-      <c r="T143" s="58"/>
-      <c r="U143" s="58"/>
-      <c r="V143" s="58"/>
-      <c r="W143" s="58"/>
-      <c r="X143" s="59"/>
+      <c r="O143" s="45"/>
+      <c r="P143" s="45"/>
+      <c r="Q143" s="141"/>
+      <c r="R143" s="142"/>
+      <c r="S143" s="142"/>
+      <c r="T143" s="142"/>
+      <c r="U143" s="142"/>
+      <c r="V143" s="142"/>
+      <c r="W143" s="142"/>
+      <c r="X143" s="143"/>
       <c r="Y143" s="38"/>
       <c r="Z143" s="38"/>
       <c r="AA143" s="38"/>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <v>7</v>
       </c>
       <c r="B144" s="41"/>
-      <c r="C144" s="104"/>
-      <c r="D144" s="104"/>
-      <c r="E144" s="104"/>
-      <c r="F144" s="104"/>
-      <c r="G144" s="104"/>
-      <c r="H144" s="104"/>
-      <c r="I144" s="104"/>
-      <c r="J144" s="104"/>
-      <c r="K144" s="104"/>
-      <c r="L144" s="104"/>
-      <c r="M144" s="104"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="125"/>
+      <c r="E144" s="125"/>
+      <c r="F144" s="125"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="125"/>
+      <c r="I144" s="125"/>
+      <c r="J144" s="125"/>
+      <c r="K144" s="125"/>
+      <c r="L144" s="125"/>
+      <c r="M144" s="125"/>
       <c r="N144" s="31"/>
-      <c r="O144" s="77"/>
-      <c r="P144" s="77"/>
-      <c r="Q144" s="54"/>
-      <c r="R144" s="55"/>
-      <c r="S144" s="55"/>
-      <c r="T144" s="55"/>
-      <c r="U144" s="55"/>
-      <c r="V144" s="55"/>
-      <c r="W144" s="55"/>
-      <c r="X144" s="56"/>
+      <c r="O144" s="52"/>
+      <c r="P144" s="52"/>
+      <c r="Q144" s="138"/>
+      <c r="R144" s="139"/>
+      <c r="S144" s="139"/>
+      <c r="T144" s="139"/>
+      <c r="U144" s="139"/>
+      <c r="V144" s="139"/>
+      <c r="W144" s="139"/>
+      <c r="X144" s="140"/>
       <c r="Y144" s="38"/>
       <c r="Z144" s="38"/>
       <c r="AA144" s="38"/>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <v>8</v>
       </c>
       <c r="B145" s="42"/>
-      <c r="C145" s="103"/>
-      <c r="D145" s="103"/>
-      <c r="E145" s="103"/>
-      <c r="F145" s="103"/>
-      <c r="G145" s="103"/>
-      <c r="H145" s="103"/>
-      <c r="I145" s="103"/>
-      <c r="J145" s="103"/>
-      <c r="K145" s="103"/>
-      <c r="L145" s="103"/>
-      <c r="M145" s="103"/>
+      <c r="C145" s="124"/>
+      <c r="D145" s="124"/>
+      <c r="E145" s="124"/>
+      <c r="F145" s="124"/>
+      <c r="G145" s="124"/>
+      <c r="H145" s="124"/>
+      <c r="I145" s="124"/>
+      <c r="J145" s="124"/>
+      <c r="K145" s="124"/>
+      <c r="L145" s="124"/>
+      <c r="M145" s="124"/>
       <c r="N145" s="32"/>
-      <c r="O145" s="101"/>
-      <c r="P145" s="101"/>
-      <c r="Q145" s="57"/>
-      <c r="R145" s="58"/>
-      <c r="S145" s="58"/>
-      <c r="T145" s="58"/>
-      <c r="U145" s="58"/>
-      <c r="V145" s="58"/>
-      <c r="W145" s="58"/>
-      <c r="X145" s="59"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
+      <c r="Q145" s="141"/>
+      <c r="R145" s="142"/>
+      <c r="S145" s="142"/>
+      <c r="T145" s="142"/>
+      <c r="U145" s="142"/>
+      <c r="V145" s="142"/>
+      <c r="W145" s="142"/>
+      <c r="X145" s="143"/>
       <c r="Y145" s="38"/>
       <c r="Z145" s="38"/>
       <c r="AA145" s="38"/>
     </row>
-    <row r="146" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>9</v>
       </c>
       <c r="B146" s="43"/>
-      <c r="C146" s="96"/>
-      <c r="D146" s="96"/>
-      <c r="E146" s="96"/>
-      <c r="F146" s="96"/>
-      <c r="G146" s="96"/>
-      <c r="H146" s="96"/>
-      <c r="I146" s="96"/>
-      <c r="J146" s="96"/>
-      <c r="K146" s="96"/>
-      <c r="L146" s="96"/>
-      <c r="M146" s="96"/>
+      <c r="C146" s="129"/>
+      <c r="D146" s="129"/>
+      <c r="E146" s="129"/>
+      <c r="F146" s="129"/>
+      <c r="G146" s="129"/>
+      <c r="H146" s="129"/>
+      <c r="I146" s="129"/>
+      <c r="J146" s="129"/>
+      <c r="K146" s="129"/>
+      <c r="L146" s="129"/>
+      <c r="M146" s="129"/>
       <c r="N146" s="44"/>
-      <c r="O146" s="102"/>
-      <c r="P146" s="102"/>
-      <c r="Q146" s="60"/>
-      <c r="R146" s="61"/>
-      <c r="S146" s="61"/>
-      <c r="T146" s="61"/>
-      <c r="U146" s="61"/>
-      <c r="V146" s="61"/>
-      <c r="W146" s="61"/>
-      <c r="X146" s="62"/>
+      <c r="O146" s="147"/>
+      <c r="P146" s="147"/>
+      <c r="Q146" s="161"/>
+      <c r="R146" s="162"/>
+      <c r="S146" s="162"/>
+      <c r="T146" s="162"/>
+      <c r="U146" s="162"/>
+      <c r="V146" s="162"/>
+      <c r="W146" s="162"/>
+      <c r="X146" s="163"/>
       <c r="Y146" s="38"/>
       <c r="Z146" s="38"/>
       <c r="AA146" s="38"/>
     </row>
-    <row r="149" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
-      <c r="K149" s="119" t="s">
+      <c r="K149" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="L149" s="119"/>
-      <c r="M149" s="119"/>
-      <c r="N149" s="119"/>
-      <c r="O149" s="119"/>
-    </row>
-    <row r="150" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I150" s="117" t="s">
+      <c r="L149" s="128"/>
+      <c r="M149" s="128"/>
+      <c r="N149" s="128"/>
+      <c r="O149" s="128"/>
+    </row>
+    <row r="150" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="126" t="s">
         <v>88</v>
       </c>
       <c r="J150" s="16">
@@ -6505,8 +7957,8 @@
       <c r="N150" s="19"/>
       <c r="O150" s="19"/>
     </row>
-    <row r="151" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I151" s="117"/>
+    <row r="151" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I151" s="126"/>
       <c r="J151" s="16">
         <v>4</v>
       </c>
@@ -6516,8 +7968,8 @@
       <c r="N151" s="19"/>
       <c r="O151" s="19"/>
     </row>
-    <row r="152" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I152" s="117"/>
+    <row r="152" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I152" s="126"/>
       <c r="J152" s="16">
         <v>3</v>
       </c>
@@ -6527,8 +7979,8 @@
       <c r="N152" s="18"/>
       <c r="O152" s="19"/>
     </row>
-    <row r="153" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I153" s="117"/>
+    <row r="153" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I153" s="126"/>
       <c r="J153" s="16">
         <v>2</v>
       </c>
@@ -6538,8 +7990,8 @@
       <c r="N153" s="18"/>
       <c r="O153" s="18"/>
     </row>
-    <row r="154" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I154" s="117"/>
+    <row r="154" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I154" s="126"/>
       <c r="J154" s="16">
         <v>1</v>
       </c>
@@ -6549,7 +8001,7 @@
       <c r="N154" s="17"/>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
       <c r="K155" s="20">
@@ -6568,22 +8020,700 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
-      <c r="K156" s="118" t="s">
+      <c r="K156" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="L156" s="118"/>
-      <c r="M156" s="118"/>
-      <c r="N156" s="118"/>
-      <c r="O156" s="118"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="L156" s="127"/>
+      <c r="M156" s="127"/>
+      <c r="N156" s="127"/>
+      <c r="O156" s="127"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>167</v>
+      </c>
+      <c r="D160" t="s">
+        <v>169</v>
+      </c>
+      <c r="E160" t="s">
+        <v>170</v>
+      </c>
+      <c r="F160" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" s="169">
+        <f>F68</f>
+        <v>10000</v>
+      </c>
+      <c r="F161" s="169">
+        <f>-D161</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
+      <c r="C162">
+        <f>C161+1</f>
+        <v>1</v>
+      </c>
+      <c r="D162" s="169">
+        <f>$F$69+$F$70</f>
+        <v>3000</v>
+      </c>
+      <c r="E162" s="169">
+        <f>$F$92</f>
+        <v>500</v>
+      </c>
+      <c r="F162" s="169">
+        <f>E162-D162</f>
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" ref="C163:C167" si="0">C162+1</f>
+        <v>2</v>
+      </c>
+      <c r="D163" s="169">
+        <f t="shared" ref="D163:D166" si="1">$F$69+$F$70</f>
+        <v>3000</v>
+      </c>
+      <c r="E163" s="169">
+        <f t="shared" ref="E163:E166" si="2">$F$92</f>
+        <v>500</v>
+      </c>
+      <c r="F163" s="169">
+        <f t="shared" ref="F163:F166" si="3">E163-D163</f>
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D164" s="169">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E164" s="169">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F164" s="169">
+        <f t="shared" si="3"/>
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D165" s="169">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E165" s="169">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F165" s="169">
+        <f t="shared" si="3"/>
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D166" s="169">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E166" s="169">
+        <f>$F$92+F71</f>
+        <v>15500</v>
+      </c>
+      <c r="F166" s="169">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>176</v>
+      </c>
+      <c r="D168" s="170">
+        <f>IRR(F161:F166)</f>
+        <v>-0.12235783384036958</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="169">
+        <f>SUM(F161:F166)</f>
+        <v>-7500</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>167</v>
+      </c>
+      <c r="D189" t="s">
+        <v>169</v>
+      </c>
+      <c r="E189" t="s">
+        <v>170</v>
+      </c>
+      <c r="F189" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" s="169">
+        <f>D161</f>
+        <v>10000</v>
+      </c>
+      <c r="E190" s="169">
+        <v>0</v>
+      </c>
+      <c r="F190" s="169">
+        <f>D190</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <f>C190+1</f>
+        <v>1</v>
+      </c>
+      <c r="D191" s="169">
+        <f>$F$69+$F$70</f>
+        <v>3000</v>
+      </c>
+      <c r="E191" s="169">
+        <v>0</v>
+      </c>
+      <c r="F191" s="169">
+        <f>E191+D191</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <f t="shared" ref="C192:C195" si="4">C191+1</f>
+        <v>2</v>
+      </c>
+      <c r="D192" s="169">
+        <f t="shared" ref="D192:D195" si="5">$F$69+$F$70</f>
+        <v>3000</v>
+      </c>
+      <c r="E192" s="169">
+        <v>0</v>
+      </c>
+      <c r="F192" s="169">
+        <f t="shared" ref="F192:F194" si="6">E192+D192</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D193" s="169">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="E193" s="169">
+        <v>0</v>
+      </c>
+      <c r="F193" s="169">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D194" s="169">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="E194" s="169">
+        <v>0</v>
+      </c>
+      <c r="F194" s="169">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D195" s="169">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="E195" s="169">
+        <v>0</v>
+      </c>
+      <c r="F195" s="169">
+        <f>E195+D195</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>176</v>
+      </c>
+      <c r="D197" s="170" t="e">
+        <f>IRR(F190:F195)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>177</v>
+      </c>
+      <c r="D198" s="169">
+        <f>SUM(F190:F195)</f>
+        <v>25000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="426">
+    <mergeCell ref="B58:N64"/>
+    <mergeCell ref="Q144:X144"/>
+    <mergeCell ref="Q145:X145"/>
+    <mergeCell ref="Q146:X146"/>
+    <mergeCell ref="T111:V111"/>
+    <mergeCell ref="P90:V90"/>
+    <mergeCell ref="Q137:X137"/>
+    <mergeCell ref="Q138:X138"/>
+    <mergeCell ref="Q139:X139"/>
+    <mergeCell ref="B135:X135"/>
+    <mergeCell ref="O136:X136"/>
+    <mergeCell ref="T106:V106"/>
+    <mergeCell ref="T107:V107"/>
+    <mergeCell ref="T108:V108"/>
+    <mergeCell ref="T109:V109"/>
+    <mergeCell ref="T110:V110"/>
+    <mergeCell ref="T101:V101"/>
+    <mergeCell ref="T102:V102"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="T104:V104"/>
+    <mergeCell ref="T105:V105"/>
+    <mergeCell ref="T96:V96"/>
+    <mergeCell ref="T97:V97"/>
+    <mergeCell ref="T98:V98"/>
+    <mergeCell ref="T99:V99"/>
+    <mergeCell ref="T100:V100"/>
+    <mergeCell ref="T91:V91"/>
+    <mergeCell ref="T92:V92"/>
+    <mergeCell ref="T93:V93"/>
+    <mergeCell ref="T94:V94"/>
+    <mergeCell ref="T95:V95"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="R109:S109"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="R106:S106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="R107:S107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="R108:S108"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="R103:S103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="R110:S110"/>
+    <mergeCell ref="Q140:X140"/>
+    <mergeCell ref="Q141:X141"/>
+    <mergeCell ref="Q142:X142"/>
+    <mergeCell ref="Q143:X143"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="B136:N136"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="O141:P141"/>
+    <mergeCell ref="O142:P142"/>
+    <mergeCell ref="O143:P143"/>
+    <mergeCell ref="O144:P144"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="O146:P146"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="I140:K140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L111:O111"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L109:O109"/>
+    <mergeCell ref="L110:O110"/>
+    <mergeCell ref="L102:O102"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="L105:O105"/>
+    <mergeCell ref="L106:O106"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="L101:O101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="L107:O107"/>
+    <mergeCell ref="L108:O108"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="I150:I154"/>
+    <mergeCell ref="K156:O156"/>
+    <mergeCell ref="K149:O149"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="I146:K146"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="I144:K144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="I145:K145"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="I142:K142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="I141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="I138:K138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="I137:K137"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="J124:M124"/>
+    <mergeCell ref="J125:M125"/>
+    <mergeCell ref="J126:M126"/>
+    <mergeCell ref="J127:M127"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="J129:M129"/>
+    <mergeCell ref="J130:M130"/>
+    <mergeCell ref="J131:M131"/>
+    <mergeCell ref="J132:M132"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="B122:Q122"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="B90:O90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B114:N120"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B113:N113"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="L67:O67"/>
     <mergeCell ref="B66:O66"/>
     <mergeCell ref="J67:K67"/>
@@ -6608,408 +8738,6 @@
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B113:N113"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="B122:Q122"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B114:N120"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="N129:O129"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="N132:O132"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="I137:K137"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="J124:M124"/>
-    <mergeCell ref="J125:M125"/>
-    <mergeCell ref="J126:M126"/>
-    <mergeCell ref="J127:M127"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="J129:M129"/>
-    <mergeCell ref="J130:M130"/>
-    <mergeCell ref="J131:M131"/>
-    <mergeCell ref="J132:M132"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="I141:K141"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="I138:K138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="I150:I154"/>
-    <mergeCell ref="K156:O156"/>
-    <mergeCell ref="K149:O149"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="I146:K146"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="I144:K144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="I145:K145"/>
-    <mergeCell ref="L144:M144"/>
-    <mergeCell ref="L145:M145"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="I142:K142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="L107:O107"/>
-    <mergeCell ref="L108:O108"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="L110:O110"/>
-    <mergeCell ref="L102:O102"/>
-    <mergeCell ref="L103:O103"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="L105:O105"/>
-    <mergeCell ref="L106:O106"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="L101:O101"/>
-    <mergeCell ref="L137:M137"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="L139:M139"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L111:O111"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L109:O109"/>
-    <mergeCell ref="Q140:X140"/>
-    <mergeCell ref="Q141:X141"/>
-    <mergeCell ref="Q142:X142"/>
-    <mergeCell ref="Q143:X143"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="B136:N136"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="O141:P141"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="O143:P143"/>
-    <mergeCell ref="O144:P144"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="O146:P146"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="L142:M142"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="I140:K140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="R111:S111"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="R106:S106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="R107:S107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="R108:S108"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="R103:S103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="R110:S110"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="T99:V99"/>
-    <mergeCell ref="T100:V100"/>
-    <mergeCell ref="T91:V91"/>
-    <mergeCell ref="T92:V92"/>
-    <mergeCell ref="T93:V93"/>
-    <mergeCell ref="T94:V94"/>
-    <mergeCell ref="T95:V95"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="R109:S109"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="B58:N64"/>
-    <mergeCell ref="Q144:X144"/>
-    <mergeCell ref="Q145:X145"/>
-    <mergeCell ref="Q146:X146"/>
-    <mergeCell ref="T111:V111"/>
-    <mergeCell ref="P90:V90"/>
-    <mergeCell ref="Q137:X137"/>
-    <mergeCell ref="Q138:X138"/>
-    <mergeCell ref="Q139:X139"/>
-    <mergeCell ref="B135:X135"/>
-    <mergeCell ref="O136:X136"/>
-    <mergeCell ref="T106:V106"/>
-    <mergeCell ref="T107:V107"/>
-    <mergeCell ref="T108:V108"/>
-    <mergeCell ref="T109:V109"/>
-    <mergeCell ref="T110:V110"/>
-    <mergeCell ref="T101:V101"/>
-    <mergeCell ref="T102:V102"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="T104:V104"/>
-    <mergeCell ref="T105:V105"/>
-    <mergeCell ref="T96:V96"/>
-    <mergeCell ref="T97:V97"/>
-    <mergeCell ref="T98:V98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7081,17 +8809,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32FDA12-3BE9-4A2C-896B-8ACA21C46970}">
   <dimension ref="B2:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
@@ -7102,7 +8830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>56</v>
       </c>
@@ -7116,7 +8844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -7127,7 +8855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>52</v>
       </c>
@@ -7135,7 +8863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -7143,7 +8871,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -7151,7 +8879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -7159,7 +8887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -7167,7 +8895,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -7175,7 +8903,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -7183,7 +8911,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -7191,7 +8919,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -7199,7 +8927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -7207,7 +8935,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -7215,7 +8943,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -7223,7 +8951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -7231,17 +8959,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>113</v>
       </c>
@@ -7249,7 +8977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>114</v>
       </c>
@@ -7257,7 +8985,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>115</v>
       </c>
@@ -7265,137 +8993,137 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>140</v>
       </c>
@@ -7413,209 +9141,209 @@
       <selection sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
